--- a/docs/data_prep v2.xlsx
+++ b/docs/data_prep v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eric\Projects\AI_Researcher_Network\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09903933-017B-416D-B85F-D2EF9AE61FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF10A6D-6D87-4B66-AE26-687FCE298970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4884" yWindow="4488" windowWidth="23040" windowHeight="12072" xr2:uid="{207A7927-F70B-47D3-A48F-2A00D3271A43}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="120">
   <si>
     <t>Category</t>
   </si>
@@ -387,9 +387,6 @@
   </si>
   <si>
     <t>Progress Update</t>
-  </si>
-  <si>
-    <t>by 21pm China time, Eric to send the data to group chat</t>
   </si>
   <si>
     <t>Postpone</t>
@@ -1318,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2954E6C0-05BF-423C-86C8-25EF8CAEEFFD}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1389,7 +1386,7 @@
         <v>110</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
@@ -1458,7 +1455,7 @@
         <v>111</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>20</v>
@@ -1552,7 +1549,7 @@
         <v>111</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1574,13 +1571,13 @@
         <v>29</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>111</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>30</v>
@@ -1604,7 +1601,7 @@
         <v>111</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
@@ -1666,7 +1663,7 @@
         <v>110</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
@@ -1714,7 +1711,7 @@
         <v>111</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1734,7 +1731,7 @@
         <v>110</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1754,7 +1751,7 @@
         <v>110</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">

--- a/docs/data_prep v2.xlsx
+++ b/docs/data_prep v2.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eric\Projects\AI_Researcher_Network\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssr\EJC\ATIP\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF10A6D-6D87-4B66-AE26-687FCE298970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{29AA19EB-0CC5-40BD-96C1-80B50AA860A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4884" yWindow="4488" windowWidth="23040" windowHeight="12072" xr2:uid="{207A7927-F70B-47D3-A48F-2A00D3271A43}"/>
+    <workbookView xWindow="5148" yWindow="1932" windowWidth="23040" windowHeight="12204" xr2:uid="{207A7927-F70B-47D3-A48F-2A00D3271A43}"/>
   </bookViews>
   <sheets>
     <sheet name="data_prep" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="123">
   <si>
     <t>Category</t>
   </si>
@@ -89,321 +90,334 @@
     <t>Citation Acceleration</t>
   </si>
   <si>
+    <t>Citations count by year (author)</t>
+  </si>
+  <si>
+    <t>Research momentum</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Research Quality</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Publication venue (paper)</t>
+  </si>
+  <si>
+    <t>Awards (paper)</t>
+  </si>
+  <si>
+    <t>Citation count (paper)</t>
+  </si>
+  <si>
+    <t>Early Career Velocity</t>
+  </si>
+  <si>
+    <t>h-index / Years Since PhD</t>
+  </si>
+  <si>
+    <t>h-index (author)</t>
+  </si>
+  <si>
+    <t>Impact growth rate</t>
+  </si>
+  <si>
+    <t>can be derived using list of publications and paper citation count if unavailable</t>
+  </si>
+  <si>
+    <t>maybe check openreview affiliation history</t>
+  </si>
+  <si>
+    <t>First-Author Dominance</t>
+  </si>
+  <si>
+    <t>First-author citations / Total citations</t>
+  </si>
+  <si>
+    <t>Independent research capability</t>
+  </si>
+  <si>
+    <t>first in list for paper authors list</t>
+  </si>
+  <si>
+    <t>Collaboration</t>
+  </si>
+  <si>
+    <t>Industry Collaboration Score</t>
+  </si>
+  <si>
+    <t>% of papers with industry co-authors</t>
+  </si>
+  <si>
+    <t>Industry relevance</t>
+  </si>
+  <si>
+    <t>Co-author affil at time of publication (author)</t>
+  </si>
+  <si>
+    <t>List of co-authors by publication (paper)</t>
+  </si>
+  <si>
+    <t>List of co-authors (author)</t>
+  </si>
+  <si>
+    <t>alternatively find % of co-authors in industry?</t>
+  </si>
+  <si>
+    <t>Open Source Impact</t>
+  </si>
+  <si>
+    <t>GitHub stars + forks across repositories</t>
+  </si>
+  <si>
+    <t>Publications with github repo link (author)</t>
+  </si>
+  <si>
+    <t>Practical research value</t>
+  </si>
+  <si>
+    <t>do we consider % of open sourced publications?</t>
+  </si>
+  <si>
+    <t>Repo stars count</t>
+  </si>
+  <si>
+    <t>python libs available</t>
+  </si>
+  <si>
+    <t>Repo forks count</t>
+  </si>
+  <si>
+    <t>Novelty</t>
+  </si>
+  <si>
+    <t>Technical Diversity Index</t>
+  </si>
+  <si>
+    <t>Number of distinct methods used</t>
+  </si>
+  <si>
+    <t>Research versatility</t>
+  </si>
+  <si>
+    <t>need to formalize what counts as distinct method</t>
+  </si>
+  <si>
+    <t>Breakthrough Paper Score</t>
+  </si>
+  <si>
+    <t>Papers &gt; 95th percentile citations</t>
+  </si>
+  <si>
+    <t>Ability to produce seminal work</t>
+  </si>
+  <si>
+    <t>Research Type</t>
+  </si>
+  <si>
+    <t>Paper type (paper)</t>
+  </si>
+  <si>
+    <t>requires type categorization using NLP: Algorithmic/Methodological, Empirical Studies, Survey &amp; Review Papers, Datasets &amp; Benchmarks, Software &amp; Tools, Foundation Models, Educational contributions, e.g., tutorial, workshop, Community Building, e.g., workshop papers</t>
+  </si>
+  <si>
+    <t>Academic Descendants Impact</t>
+  </si>
+  <si>
+    <t>Second Order</t>
+  </si>
+  <si>
+    <t>Sum of all students' h-indices</t>
+  </si>
+  <si>
+    <t>Mentorship quality</t>
+  </si>
+  <si>
+    <t>List of students (author)</t>
+  </si>
+  <si>
+    <t>consider co-author affiliation,paper acknowledgement, thesis database</t>
+  </si>
+  <si>
+    <t>Network Growth Catalyst</t>
+  </si>
+  <si>
+    <t># New collabs between co-authors</t>
+  </si>
+  <si>
+    <t>Community building ability</t>
+  </si>
+  <si>
+    <t>Bridge Score</t>
+  </si>
+  <si>
+    <t>Betweenness centrality in network</t>
+  </si>
+  <si>
+    <t>Connects different communities</t>
+  </si>
+  <si>
+    <t>requires higher level research community identification</t>
+  </si>
+  <si>
+    <t>Rising Star Magnet</t>
+  </si>
+  <si>
+    <t>Future stars who sought collaboration</t>
+  </si>
+  <si>
+    <t>Talent recognition ability</t>
+  </si>
+  <si>
+    <t>dependent on scoring for coauthors, no immediate metric useable</t>
+  </si>
+  <si>
+    <t>Method Adoption Network</t>
+  </si>
+  <si>
+    <t>% of citations in methodology section</t>
+  </si>
+  <si>
+    <t>True intellectual influence</t>
+  </si>
+  <si>
+    <t>requires higher level analysis of citation location in paper</t>
+  </si>
+  <si>
+    <t>Academic Lineage Velocity</t>
+  </si>
+  <si>
+    <t>Time for students to become advisors</t>
+  </si>
+  <si>
+    <t>Speed of creating researchers</t>
+  </si>
+  <si>
+    <t>but not all students will become supervisors</t>
+  </si>
+  <si>
+    <t>Second-Degree Collaboration Quality</t>
+  </si>
+  <si>
+    <t>Avg h-index of collaborators' collaborators</t>
+  </si>
+  <si>
+    <t>Extended network quality</t>
+  </si>
+  <si>
+    <t>Independence</t>
+  </si>
+  <si>
+    <t>Self-Made Index</t>
+  </si>
+  <si>
+    <t>Reverse Second Order</t>
+  </si>
+  <si>
+    <t>Success without advisor / Total success</t>
+  </si>
+  <si>
+    <t>Independence level</t>
+  </si>
+  <si>
+    <t>formalize 'success' rating from other metrics</t>
+  </si>
+  <si>
+    <t>Inherited Prestige Score</t>
+  </si>
+  <si>
+    <t>Advisor h-index × institution rank</t>
+  </si>
+  <si>
+    <t>Starting advantages</t>
+  </si>
+  <si>
+    <t>metric inconsistent across ranking organizations</t>
+  </si>
+  <si>
+    <t>Organic Growth Rate</t>
+  </si>
+  <si>
+    <t>Growth after advisor period</t>
+  </si>
+  <si>
+    <t>Self-sustaining success</t>
+  </si>
+  <si>
+    <t>Network Independence Score</t>
+  </si>
+  <si>
+    <t>% collaborators NOT from advisor</t>
+  </si>
+  <si>
+    <t>Own network building</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>as above</t>
+  </si>
+  <si>
+    <t>wx</t>
+  </si>
+  <si>
+    <t>eric</t>
+  </si>
+  <si>
+    <t>Affiliation history (author)</t>
+  </si>
+  <si>
+    <t>Paper track</t>
+  </si>
+  <si>
+    <t>First author publications (author)/last author</t>
+  </si>
+  <si>
+    <t>IsInfluential (paper)</t>
+  </si>
+  <si>
+    <t>CSR ranking (institution)</t>
+  </si>
+  <si>
+    <t>Progress Update</t>
+  </si>
+  <si>
+    <t>Postpone</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
     <t>Citations(Last 2yr) / Citations(Previous 2yr)</t>
-  </si>
-  <si>
-    <t>Citations count by year (author)</t>
-  </si>
-  <si>
-    <t>Research momentum</t>
-  </si>
-  <si>
-    <t>Quality</t>
-  </si>
-  <si>
-    <t>Research Quality</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>Publication venue (paper)</t>
-  </si>
-  <si>
-    <t>Awards (paper)</t>
-  </si>
-  <si>
-    <t>Citation count (paper)</t>
-  </si>
-  <si>
-    <t>Early Career Velocity</t>
-  </si>
-  <si>
-    <t>h-index / Years Since PhD</t>
-  </si>
-  <si>
-    <t>h-index (author)</t>
-  </si>
-  <si>
-    <t>Impact growth rate</t>
-  </si>
-  <si>
-    <t>can be derived using list of publications and paper citation count if unavailable</t>
-  </si>
-  <si>
-    <t>maybe check openreview affiliation history</t>
-  </si>
-  <si>
-    <t>First-Author Dominance</t>
-  </si>
-  <si>
-    <t>First-author citations / Total citations</t>
-  </si>
-  <si>
-    <t>Independent research capability</t>
-  </si>
-  <si>
-    <t>first in list for paper authors list</t>
-  </si>
-  <si>
-    <t>Collaboration</t>
-  </si>
-  <si>
-    <t>Industry Collaboration Score</t>
-  </si>
-  <si>
-    <t>% of papers with industry co-authors</t>
-  </si>
-  <si>
-    <t>Industry relevance</t>
-  </si>
-  <si>
-    <t>Co-author affil at time of publication (author)</t>
-  </si>
-  <si>
-    <t>List of co-authors by publication (paper)</t>
-  </si>
-  <si>
-    <t>List of co-authors (author)</t>
-  </si>
-  <si>
-    <t>alternatively find % of co-authors in industry?</t>
-  </si>
-  <si>
-    <t>Open Source Impact</t>
-  </si>
-  <si>
-    <t>GitHub stars + forks across repositories</t>
-  </si>
-  <si>
-    <t>Publications with github repo link (author)</t>
-  </si>
-  <si>
-    <t>Practical research value</t>
-  </si>
-  <si>
-    <t>do we consider % of open sourced publications?</t>
-  </si>
-  <si>
-    <t>Repo stars count</t>
-  </si>
-  <si>
-    <t>python libs available</t>
-  </si>
-  <si>
-    <t>Repo forks count</t>
-  </si>
-  <si>
-    <t>Novelty</t>
-  </si>
-  <si>
-    <t>Technical Diversity Index</t>
-  </si>
-  <si>
-    <t>Number of distinct methods used</t>
-  </si>
-  <si>
-    <t>Research versatility</t>
-  </si>
-  <si>
-    <t>need to formalize what counts as distinct method</t>
-  </si>
-  <si>
-    <t>Breakthrough Paper Score</t>
-  </si>
-  <si>
-    <t>Papers &gt; 95th percentile citations</t>
-  </si>
-  <si>
-    <t>Ability to produce seminal work</t>
-  </si>
-  <si>
-    <t>Research Type</t>
-  </si>
-  <si>
-    <t>Paper type (paper)</t>
-  </si>
-  <si>
-    <t>requires type categorization using NLP: Algorithmic/Methodological, Empirical Studies, Survey &amp; Review Papers, Datasets &amp; Benchmarks, Software &amp; Tools, Foundation Models, Educational contributions, e.g., tutorial, workshop, Community Building, e.g., workshop papers</t>
-  </si>
-  <si>
-    <t>Academic Descendants Impact</t>
-  </si>
-  <si>
-    <t>Second Order</t>
-  </si>
-  <si>
-    <t>Sum of all students' h-indices</t>
-  </si>
-  <si>
-    <t>Mentorship quality</t>
-  </si>
-  <si>
-    <t>List of students (author)</t>
-  </si>
-  <si>
-    <t>consider co-author affiliation,paper acknowledgement, thesis database</t>
-  </si>
-  <si>
-    <t>Network Growth Catalyst</t>
-  </si>
-  <si>
-    <t># New collabs between co-authors</t>
-  </si>
-  <si>
-    <t>Community building ability</t>
-  </si>
-  <si>
-    <t>Bridge Score</t>
-  </si>
-  <si>
-    <t>Betweenness centrality in network</t>
-  </si>
-  <si>
-    <t>Connects different communities</t>
-  </si>
-  <si>
-    <t>requires higher level research community identification</t>
-  </si>
-  <si>
-    <t>Rising Star Magnet</t>
-  </si>
-  <si>
-    <t>Future stars who sought collaboration</t>
-  </si>
-  <si>
-    <t>Talent recognition ability</t>
-  </si>
-  <si>
-    <t>dependent on scoring for coauthors, no immediate metric useable</t>
-  </si>
-  <si>
-    <t>Method Adoption Network</t>
-  </si>
-  <si>
-    <t>% of citations in methodology section</t>
-  </si>
-  <si>
-    <t>True intellectual influence</t>
-  </si>
-  <si>
-    <t>requires higher level analysis of citation location in paper</t>
-  </si>
-  <si>
-    <t>Academic Lineage Velocity</t>
-  </si>
-  <si>
-    <t>Time for students to become advisors</t>
-  </si>
-  <si>
-    <t>Speed of creating researchers</t>
-  </si>
-  <si>
-    <t>but not all students will become supervisors</t>
-  </si>
-  <si>
-    <t>Second-Degree Collaboration Quality</t>
-  </si>
-  <si>
-    <t>Avg h-index of collaborators' collaborators</t>
-  </si>
-  <si>
-    <t>Extended network quality</t>
-  </si>
-  <si>
-    <t>Independence</t>
-  </si>
-  <si>
-    <t>Self-Made Index</t>
-  </si>
-  <si>
-    <t>Reverse Second Order</t>
-  </si>
-  <si>
-    <t>Success without advisor / Total success</t>
-  </si>
-  <si>
-    <t>Independence level</t>
-  </si>
-  <si>
-    <t>formalize 'success' rating from other metrics</t>
-  </si>
-  <si>
-    <t>Inherited Prestige Score</t>
-  </si>
-  <si>
-    <t>Advisor h-index × institution rank</t>
-  </si>
-  <si>
-    <t>Starting advantages</t>
-  </si>
-  <si>
-    <t>metric inconsistent across ranking organizations</t>
-  </si>
-  <si>
-    <t>Organic Growth Rate</t>
-  </si>
-  <si>
-    <t>Growth after advisor period</t>
-  </si>
-  <si>
-    <t>Self-sustaining success</t>
-  </si>
-  <si>
-    <t>Network Independence Score</t>
-  </si>
-  <si>
-    <t>% collaborators NOT from advisor</t>
-  </si>
-  <si>
-    <t>Own network building</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>as above</t>
-  </si>
-  <si>
-    <t>wx</t>
-  </si>
-  <si>
-    <t>eric</t>
-  </si>
-  <si>
-    <t>Affiliation history (author)</t>
-  </si>
-  <si>
-    <t>Paper track</t>
-  </si>
-  <si>
-    <t>First author publications (author)/last author</t>
-  </si>
-  <si>
-    <t>IsInfluential (paper)</t>
-  </si>
-  <si>
-    <t>CSR ranking (institution)</t>
-  </si>
-  <si>
-    <t>Progress Update</t>
-  </si>
-  <si>
-    <t>Postpone</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>methods used (paper)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeff</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>done</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -411,7 +425,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -419,7 +433,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Aptos Display"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -428,7 +442,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -437,7 +451,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -446,7 +460,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -454,7 +468,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -462,7 +476,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -470,7 +484,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -478,7 +492,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -487,7 +501,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -496,7 +510,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -504,7 +518,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -513,7 +527,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -521,7 +535,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -530,7 +544,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -539,7 +553,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -547,14 +561,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -562,15 +576,39 @@
     <font>
       <sz val="11"/>
       <color rgb="FFEE0000"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -930,7 +968,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -938,50 +976,52 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,13 +1353,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2954E6C0-05BF-423C-86C8-25EF8CAEEFFD}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
@@ -1334,32 +1374,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1367,7 +1407,7 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1383,10 +1423,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
@@ -1405,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H3" s="1" t="str">
         <f>H2</f>
@@ -1436,50 +1476,50 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>109</v>
+      <c r="F6" s="1">
+        <v>1</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1492,7 +1532,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1524,7 +1564,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1540,16 +1580,16 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1558,32 +1598,32 @@
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1592,43 +1632,45 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>109</v>
+      <c r="F13" s="1">
+        <v>1</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="I13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -1638,61 +1680,63 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>109</v>
+        <v>25</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>109</v>
+      <c r="F16" s="1">
+        <v>1</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J16" s="1"/>
     </row>
@@ -1701,17 +1745,17 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>41</v>
+      <c r="E17" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1722,16 +1766,16 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1742,37 +1786,37 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -1780,10 +1824,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1792,7 +1836,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -1801,7 +1845,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1810,7 +1854,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -1822,72 +1866,76 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>55</v>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>109</v>
+      <c r="F23" s="1">
+        <v>1</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="I23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>109</v>
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2" t="s">
-        <v>62</v>
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1895,392 +1943,421 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>26</v>
+      <c r="E26" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H26" s="1" t="str">
+        <v>121</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="1" t="str">
         <f>H2</f>
         <v>done</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1" t="s">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2" t="s">
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="I31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="H37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J41" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E43" s="5" t="s">
-        <v>113</v>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E44" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>